--- a/scraping/detik.com/penculikan.xlsx
+++ b/scraping/detik.com/penculikan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D674"/>
+  <dimension ref="A1:D798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15261,6 +15261,2734 @@
         </is>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Profil Dwi Hartono: Bos Bimbel Terlibat Pembunuhan Ilham Kacab Bank</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8080497/profil-dwi-hartono-bos-bimbel-terlibat-pembunuhan-ilham-kacab-bank</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 17:34 WIB</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Penculik-Pemerkosa Siswi SD di Mojokerto Jalani Sidang Korban Kedua</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-8080420/penculik-pemerkosa-siswi-sd-di-mojokerto-jalani-sidang-korban-kedua</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 17:20 WIB</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Dwi Hartono Aktor Penculikan Kacab Bank di Jakarta Sempat Ingin Maju Bupati Tebo</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumbagsel/berita/d-8080408/dwi-hartono-aktor-penculikan-kacab-bank-di-jakarta-sempat-ingin-maju-bupati-tebo</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 17:00 WIB</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>detikSumbagsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Pelaku Penculikan Bocah di Gunung Sahari Jakpus Ditangkap!</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20230103-230103044/pelaku-penculikan-bocah-di-gunung-sahari-jakpus-ditangkap</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 20:04 WIB</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Total 15 Orang Ditangkap Terkait Kasus Kacab Bank Tewas Usai Diculik</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8080406/total-15-orang-ditangkap-terkait-kasus-kacab-bank-tewas-usai-diculik</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 16:59 WIB</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Video Penculik Kacab Minta Perlindungan Kapolri-Panglima: Sebut Oknum Terlibat</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20250826-250826049/video-penculik-kacab-minta-perlindungan-kapolri-panglima-sebut-oknum-terlibat</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 16:44 WIB</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Heboh Sejumlah Warga Cirebon Geruduk Rumah Terduga Penculik</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/cirebon-raya/d-8080273/heboh-sejumlah-warga-cirebon-geruduk-rumah-terduga-penculik</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 16:27 WIB</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Ananda Mikola Tak Lagi Stres</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>https://hot.detik.com/photo/d-1105044/ananda-mikola-tak-lagi-stres</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Rabu, 25 Mar 2009 15:36 WIB</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Dwi Hartono Aktor Penculikan Kacab Bank Juga Dikenal sebagai Motivator</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8080276/dwi-hartono-aktor-penculikan-kacab-bank-juga-dikenal-sebagai-motivator</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 16:25 WIB</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Penculik Kacab Bank Ngaku Disuruh Oknum, Minta Dilindungi Panglima-Kapolri</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/hukum-dan-kriminal/d-8080117/penculik-kacab-bank-ngaku-disuruh-oknum-minta-dilindungi-panglima-kapolri</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 16:00 WIB</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>detikKalimantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Video: Pelaku Penculikan Kacab Bank Ngaku Diperintah F, Diimingi Rp 50 Juta</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20250826-250826045/video-pelaku-penculikan-kacab-bank-ngaku-diperintah-f-diimingi-rp-50-juta</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 15:55 WIB</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Segini Bayaran Tersangka untuk Menculik Ilham Kacab Bank</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/hukum-dan-kriminal/d-8080182/segini-bayaran-tersangka-untuk-menculik-ilham-kacab-bank</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 15:52 WIB</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>detikKalimantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Pengacara Penculik Ungkap 3 Klaster Tersangka di Kasus Tewasnya Ilham</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8080169/pengacara-penculik-ungkap-3-klaster-tersangka-di-kasus-tewasnya-ilham</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 15:42 WIB</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>3 Cluster Pelaku Penculikan dan Pembunuhan Kacab Bank Versi Pihak Tersangka</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8080153/3-cluster-pelaku-penculikan-dan-pembunuhan-kacab-bank-versi-pihak-tersangka</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 15:37 WIB</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Sosok Dwi Aktor Penculikan-Pembunuhan Kacab Bank di Jakarta, Berasal dari Jambi</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumbagsel/berita/d-8080125/sosok-dwi-aktor-penculikan-pembunuhan-kacab-bank-di-jakarta-berasal-dari-jambi</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 15:30 WIB</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>detikSumbagsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Yang Diketahui Sejauh Ini soal Penculikan Bocah di Jakpus</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20221219-221219137/yang-diketahui-sejauh-ini-soal-penculikan-bocah-di-jakpus</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 20:04 WIB</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Iming-iming Bayaran Puluhan Juta Buat Eras Nekat Culik Ilham</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8080138/iming-iming-bayaran-puluhan-juta-buat-eras-nekat-culik-ilham</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 15:29 WIB</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Pengakuan Penculik Ilham Kacab Bank, Ada Perintah dari Oknum</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jateng/hukum-dan-kriminal/d-8080068/pengakuan-penculik-ilham-kacab-bank-ada-perintah-dari-oknum</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 14:56 WIB</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>detikJateng</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Pengacara Tersangka: Ada Oknum Inisial 'F' di Kasus Penculikan Ilham</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8080035/pengacara-tersangka-ada-oknum-inisial-f-di-kasus-penculikan-ilham</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 14:44 WIB</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Peran Dwi Hartono dan 7 Tersangka Kasus Kematian Ilham Pradipta</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8079993/peran-dwi-hartono-dan-7-tersangka-kasus-kematian-ilham-pradipta</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 14:36 WIB</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Fakta Sosok Dwi Hartono Otak Pembunuhan Kacab: Pebisnis-Youtuber</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/berita/d-8079978/fakta-sosok-dwi-hartono-otak-pembunuhan-kacab-pebisnis-youtuber</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 14:32 WIB</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Tersangka Ngaku Diimingi Rp 50 Juta oleh Oknum F untuk Culik Kacab Bank</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8079970/tersangka-ngaku-diimingi-rp-50-juta-oleh-oknum-f-untuk-culik-kacab-bank</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 14:26 WIB</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Penculik Kacab Bank Sebut Oknum Terlibat, Minta Perlindungan Panglima-Kapolri</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8079922/penculik-kacab-bank-sebut-oknum-terlibat-minta-perlindungan-panglima-kapolri</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 13:59 WIB</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Penculikan Kacab Bank di Jakarta Diotaki Dwi Hartono Pengusaha Bimbel</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jogja/berita/d-8079914/penculikan-kacab-bank-di-jakarta-diotaki-dwi-hartono-pengusaha-bimbel</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 13:54 WIB</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>detikJogja</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Dwi Hartono Otak Penculikan Kacab Bank di Jakarta Pengusaha Bimbel</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jateng/hukum-dan-kriminal/d-8079833/dwi-hartono-otak-penculikan-kacab-bank-di-jakarta-pengusaha-bimbel</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 13:18 WIB</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>detikJateng</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Siapa Dwi Hartono, Otak Penculikan dan Pembunuhan Ilham Kacab Bank?</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/hukum-dan-kriminal/d-8079812/siapa-dwi-hartono-otak-penculikan-dan-pembunuhan-ilham-kacab-bank</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 13:05 WIB</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>detikKalimantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Terekam CCTV, Aksi Penculikan Bocah di Gunung Sahari Jakpus</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20221217-221217071/terekam-cctv-aksi-penculikan-bocah-di-gunung-sahari-jakpus</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 20:04 WIB</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Terkuak! Dwi Hartono Bos Bimbel yang Jadi Otak Penculikan Ilham Pradipta</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8079780/terkuak-dwi-hartono-bos-bimbel-yang-jadi-otak-penculikan-ilham-pradipta</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 12:53 WIB</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Polisi Ungkap Dwi Hartono sebagai Otak Penculikan Ilham Pradipta</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8079707/polisi-ungkap-dwi-hartono-sebagai-otak-penculikan-ilham-pradipta</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 12:30 WIB</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Dwi Hartono, Otak Penculikan dan Pembunuhan Ilham Kacab Bank</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/hukum-dan-kriminal/d-8079688/dwi-hartono-otak-penculikan-dan-pembunuhan-ilham-kacab-bank</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 12:20 WIB</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>detikKalimantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Otak Penculikan Kacab Bank: Pengusaha Bimbel Bernama Dwi Hartono</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8079626/otak-penculikan-kacab-bank-pengusaha-bimbel-bernama-dwi-hartono</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 11:49 WIB</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Video: 3 Kluster Pelaku di Kasus Pembunuhan Kacab Bank Versi Pihak Tersangka</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20250826-250826007/video-3-kluster-pelaku-di-kasus-pembunuhan-kacab-bank-versi-pihak-tersangka</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Selasa, 26 Agu 2025 06:37 WIB</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Video: Penyesalan Terlambat Pelaku Penculikan Kacab Bank</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20250825-250825070/video-penyesalan-terlambat-pelaku-penculikan-kacab-bank</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 19:51 WIB</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Culik-Perkosa Siswi SD di Mojokerto, Pria Surabaya Divonis 11 Tahun Bui</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-8078797/culik-perkosa-siswi-sd-di-mojokerto-pria-surabaya-divonis-11-tahun-bui</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 19:20 WIB</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Detik-detik 3 Otak Pembunuhan Kacab Bank Dibekuk di Jalanan Solo-Sukoharjo</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jateng/hukum-dan-kriminal/d-8078694/detik-detik-3-otak-pembunuhan-kacab-bank-dibekuk-di-jalanan-solo-sukoharjo</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 18:09 WIB</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>detikJateng</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Sosok Dipta di Mata Rekan Penyiar, Sebelum Jadi Kacab Korban Penculikan</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/berita/d-8078327/sosok-dipta-di-mata-rekan-penyiar-sebelum-jadi-kacab-korban-penculikan</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 15:52 WIB</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>8 Tersangka Kasus Kematian Ilham Pradipta: Peran dan Kronologi Penangkapan</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8078296/8-tersangka-kasus-kematian-ilham-pradipta-peran-dan-kronologi-penangkapan</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 15:45 WIB</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Bocah Diculik di Banjarnegara, Ngaku Dikencingi Pelaku Lalu Diberi Uang</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikflash/20221112-221112049/bocah-diculik-di-banjarnegara-ngaku-dikencingi-pelaku-lalu-diberi-uang</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 20:04 WIB</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Ilham Kacab Bank Dibunuh Punya Nama Udara 'Dipta' Saat Jadi Penyiar Radio</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jateng/hukum-dan-kriminal/d-8077797/ilham-kacab-bank-dibunuh-punya-nama-udara-dipta-saat-jadi-penyiar-radio</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 12:32 WIB</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>detikJateng</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Disdik Semarang Ungkap Kondisi Terkini Siswi SD Nyaris Diculik di Gunungpati</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jateng/berita/d-8077755/disdik-semarang-ungkap-kondisi-terkini-siswi-sd-nyaris-diculik-di-gunungpati</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 12:15 WIB</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>detikJateng</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Ekspresi Panik 3 Aktor Utama Kasus Ilham Pradipta Saat Ditangkap di Solo</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8077699/ekspresi-panik-3-aktor-utama-kasus-ilham-pradipta-saat-ditangkap-di-solo</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 11:51 WIB</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>4 Otak Penculikan-Pembunuhan Kacab Bank Resmi Jadi Tersangka</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-8077525/4-otak-penculikan-pembunuhan-kacab-bank-resmi-jadi-tersangka</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 10:35 WIB</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Momen Tegang 3 Otak Pembunuhan Kacab Bank Diringkus di Jalanan Solo</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jogja/berita/d-8077504/momen-tegang-3-otak-pembunuhan-kacab-bank-diringkus-di-jalanan-solo</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 10:09 WIB</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>detikJogja</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>4 Dalang Kematian Kacab Bank Ilham Tersangka, Motif Masih Misteri</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-8077471/4-dalang-kematian-kacab-bank-ilham-tersangka-motif-masih-misteri</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 10:00 WIB</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Kasus Pembunuhan Kacab Bank: 4 Aktor Intelektual Jadi Tersangka</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/hukum-dan-kriminal/d-8077467/kasus-pembunuhan-kacab-bank-4-aktor-intelektual-jadi-tersangka</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Senin, 25 Agu 2025 10:00 WIB</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>detikKalimantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Tampang 9 Pelaku Sadis yang Sekap dan Aniaya Korban di Tangsel</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8165012/tampang-9-pelaku-sadis-yang-sekap-dan-aniaya-korban-di-tangsel</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Jumat, 17 Okt 2025 11:34 WIB</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Cerita Korban Penculikan di Tangsel Disundut Rokok hingga Dicambuk Selang</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8164955/cerita-korban-penculikan-di-tangsel-disundut-rokok-hingga-dicambuk-selang</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Jumat, 17 Okt 2025 11:13 WIB</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Terungkap Jual Beli Mobil Fiktif di Balik 3 Pria Tangsel Disekap</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8164705/terungkap-jual-beli-mobil-fiktif-di-balik-3-pria-tangsel-disekap</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Jumat, 17 Okt 2025 08:02 WIB</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>13 Siswa MAN 1 Medan Diduga Terlibat Penculikan-Penganiayaan MH</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20231127-231127111/13-siswa-man-1-medan-diduga-terlibat-penculikan-penganiayaan-mh</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 20:03 WIB</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Black Phone 2: Telepon Dari Neraka Masih Berdering</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/pop/movie/d-8163657/black-phone-2-telepon-dari-neraka-masih-berdering</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Jumat, 17 Okt 2025 07:00 WIB</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>detikPop</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Istri Korban Penculikan Tangsel Berhasil Kabur, Dengar Suara Seperti Cambukan</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8164056/istri-korban-penculikan-tangsel-berhasil-kabur-dengar-suara-seperti-cambukan</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Kamis, 16 Okt 2025 17:06 WIB</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Polisi Dalami Motif Penculikan-Pemerasan Modus Jual Beli Mobil di Tangsel</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8163908/polisi-dalami-motif-penculikan-pemerasan-modus-jual-beli-mobil-di-tangsel</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Kamis, 16 Okt 2025 16:08 WIB</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Mengenang Tragedi Pembunuhan &amp; Penculikan di Rumah Nasution</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>https://travel.detik.com/fototravel/d-3040482/mengenang-tragedi-pembunuhan-penculikan-di-rumah-nasution</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Jumat, 09 Okt 2015 13:50 WIB</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Momen Polisi Tangkap 9 Penculik-Pemeras 3 Pria Modus Jual Beli Mobil di Tangsel</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8163875/momen-polisi-tangkap-9-penculik-pemeras-3-pria-modus-jual-beli-mobil-di-tangsel</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Kamis, 16 Okt 2025 15:55 WIB</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Peran 9 Tersangka Penculikan-Penyiksaan Modus Jual Beli Mobil di Tangsel</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8163733/peran-9-tersangka-penculikan-penyiksaan-modus-jual-beli-mobil-di-tangsel</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Kamis, 16 Okt 2025 15:19 WIB</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Jual Beli Mobil Fiktif di Balik Penculikan dan Penyekapan di Tangsel</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8163681/jual-beli-mobil-fiktif-di-balik-penculikan-dan-penyekapan-di-tangsel</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Kamis, 16 Okt 2025 15:01 WIB</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>9 Tersangka Penculikan di Tangsel Ditangkap, Langsung Ditahan</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8163510/9-tersangka-penculikan-di-tangsel-ditangkap-langsung-ditahan</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Kamis, 16 Okt 2025 14:06 WIB</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Polda Metro Pastikan Pelat Mobil Dinas Polisi di TKP Penculikan Tangsel Palsu</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8163419/polda-metro-pastikan-pelat-mobil-dinas-polisi-di-tkp-penculikan-tangsel-palsu</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Kamis, 16 Okt 2025 13:16 WIB</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Mengungkap Misteri Keberadaan Pedli yang Hilang 3 Tahun Diduga Diculik</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumbagsel/hukum-dan-kriminal/d-8162557/mengungkap-misteri-keberadaan-pedli-yang-hilang-3-tahun-diduga-diculik</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Kamis, 16 Okt 2025 08:00 WIB</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>detikSumbagsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Ayah 3 Anak di Palembang Diduga Diculik 4 Pria Bermobil, Ibu Lapor Polisi</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumbagsel/hukum-dan-kriminal/d-8161932/ayah-3-anak-di-palembang-diduga-diculik-4-pria-bermobil-ibu-lapor-polisi</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Rabu, 15 Okt 2025 18:30 WIB</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>detikSumbagsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Siswa di Medan Diculik dan Di-Bully Teman hingga Alumni</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detik-pagi/20231127-231127090/siswa-di-medan-diculik-dan-di-bully-teman-hingga-alumni</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 20:05 WIB</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Viral 3 Pria Diduga Diculik dan Disiksa Usai Jual Beli Mobil di Tangsel</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8161502/viral-3-pria-diduga-diculik-dan-disiksa-usai-jual-beli-mobil-di-tangsel</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Rabu, 15 Okt 2025 11:18 WIB</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Hilang di Kamboja, 80 Warga Korsel Diduga Jadi Korban Scam</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumut/berita/d-8161002/hilang-di-kamboja-80-warga-korsel-diduga-jadi-korban-scam</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Rabu, 15 Okt 2025 05:01 WIB</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>detikSumut</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Heboh Isu Penculikan Anak di Flores, Polisi Pastikan Hoax</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-8161022/heboh-isu-penculikan-anak-di-flores-polisi-pastikan-hoax</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Selasa, 14 Okt 2025 22:09 WIB</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>detikBali</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Ratu Boki Tunjukkan Video 'Penculikan' Sultan Ternate</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/foto-news/d-2760301/ratu-boki-tunjukkan-video-penculikan-sultan-ternate</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Rabu, 26 Nov 2014 21:55 WIB</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>FotoNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>80 Warga Korsel Hilang di Kamboja, Diduga Jadi Korban Scam</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-8160974/80-warga-korsel-hilang-di-kamboja-diduga-jadi-korban-scam</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Selasa, 14 Okt 2025 21:22 WIB</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>8 Pelaku Kejahatan di Riau Dibekuk: Jambret, Culik hingga Garong Minimarket</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/melindungi-tuah-marwah/d-8160738/8-pelaku-kejahatan-di-riau-dibekuk-jambret-culik-hingga-garong-minimarket</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Selasa, 14 Okt 2025 18:22 WIB</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>5 Karakter One Piece Reputasinya Ambyar Jeblok Flashback Rocks-Insiden God Valley</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/pop/culture/d-8154672/5-karakter-one-piece-reputasinya-ambyar-jeblok-flashback-rocks-insiden-god-valley</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Jumat, 10 Okt 2025 20:00 WIB</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>detikPop</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>5 Jenis Tarian Bengkulu: Sejarah, Makna, dan Keunikannya</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumbagsel/budaya/d-8152472/5-jenis-tarian-bengkulu-sejarah-makna-dan-keunikannya</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Kamis, 09 Okt 2025 22:00 WIB</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>detikSumbagsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Menteri Garis Keras Israel Serukan Basmi Hamas Setelah Sandera Bebas</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-8153004/menteri-garis-keras-israel-serukan-basmi-hamas-setelah-sandera-bebas</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Kamis, 09 Okt 2025 16:05 WIB</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2 Tahun Perang di Gaza, Komisi I DPR Dorong RI Kirim Pasukan Perdamaian</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8152040/2-tahun-perang-di-gaza-komisi-i-dpr-dorong-ri-kirim-pasukan-perdamaian</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Kamis, 09 Okt 2025 08:01 WIB</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Israel Mbalelo Abaikan Trump Tetap Gempur Gaza</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-8151998/israel-mbalelo-abaikan-trump-tetap-gempur-gaza</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Kamis, 09 Okt 2025 06:31 WIB</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Hadiah Rp 769 Juta Bagi yang Bisa Temukan Ayah Luis Diaz</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20231031-231031049/hadiah-rp-769-juta-bagi-yang-bisa-temukan-ayah-luis-diaz</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 20:02 WIB</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>23+ Film Bioskop Oktober 2025 dari Horor-Komedi Lengkap Sinopsis Singkat</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumbagsel/berita/d-8151218/23-film-bioskop-oktober-2025-dari-horor-komedi-lengkap-sinopsis-singkat</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Kamis, 09 Okt 2025 06:30 WIB</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>detikSumbagsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Eks Jenderal Israel Sebut Negaranya Tak Mampu Kalahkan Palestina</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jogja/berita/d-8151877/eks-jenderal-israel-sebut-negaranya-tak-mampu-kalahkan-palestina</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Rabu, 08 Okt 2025 22:55 WIB</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>detikJogja</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Pengakuan Eks Jenderal Israel Tak Mampu Kalahkan Palestina</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-8151834/pengakuan-eks-jenderal-israel-tak-mampu-kalahkan-palestina</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Rabu, 08 Okt 2025 22:02 WIB</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Kuasa Hukum Muchdi Bicara Terkait DKP</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/foto-news/d-2619122/kuasa-hukum-muchdi-bicara-terkait-dkp</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Rabu, 25 Jun 2014 16:04 WIB</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Foto News</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>5 Berita Terpopuler Internasional Hari Ini</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-8151315/5-berita-terpopuler-internasional-hari-ini</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Rabu, 08 Okt 2025 17:13 WIB</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Culik Siswi SD Hendak Dicabuli, Pemuda Semarang Dihajar Massa</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jateng/hukum-dan-kriminal/d-8150884/culik-siswi-sd-hendak-dicabuli-pemuda-semarang-dihajar-massa</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Rabu, 08 Okt 2025 14:14 WIB</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>detikJateng</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Netanyahu Bertekad Hapuskan Kekuasaan Hamas di Gaza</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-8150691/netanyahu-bertekad-hapuskan-kekuasaan-hamas-di-gaza</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Rabu, 08 Okt 2025 12:39 WIB</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Netanyahu Tak Tunjukkan Niat Setop Serangan Usai 2 Tahun Perang di Gaza</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-8150351/netanyahu-tak-tunjukkan-niat-setop-serangan-usai-2-tahun-perang-di-gaza</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Rabu, 08 Okt 2025 09:29 WIB</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Gagal Berlayar, Chiki Fawzi: Misi Kemanusiaan untuk Gaza Terus Berlanjut</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>https://hot.detik.com/celeb/d-8145312/gagal-berlayar-chiki-fawzi-misi-kemanusiaan-untuk-gaza-terus-berlanjut</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Minggu, 05 Okt 2025 15:56 WIB</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>detikHot</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Iran Eksekusi Mati 6 Anggota Kelompok Teroris</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-8144645/iran-eksekusi-mati-6-anggota-kelompok-teroris</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Sabtu, 04 Okt 2025 13:06 WIB</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>9 Rekomendasi Dracin Terbaru Oktober 2025: Romansa, Fantasi, hingga Misteri</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sulsel/berita/d-8143854/9-rekomendasi-dracin-terbaru-oktober-2025-romansa-fantasi-hingga-misteri</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Jumat, 03 Okt 2025 21:00 WIB</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>detikSulsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Viral Perempuan Dinarasikan Diculik di Padang, Polisi Jelaskan Faktanya</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20230929-230929061/viral-perempuan-dinarasikan-diculik-di-padang-polisi-jelaskan-faktanya</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 19:57 WIB</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Massa Demo di Kedubes AS Desak Aktivis Global Sumud Flotilla Dibebaskan</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8143781/massa-demo-di-kedubes-as-desak-aktivis-global-sumud-flotilla-dibebaskan</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Jumat, 03 Okt 2025 17:56 WIB</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Saat Ultras Malaysia Ikut Turun ke Jalan.....Kecam AS dan Israel!</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>https://sport.detik.com/sepakbola/gila-bola/d-8142335/saat-ultras-malaysia-ikut-turun-ke-jalan-kecam-as-dan-israel</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Kamis, 02 Okt 2025 23:00 WIB</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Sepakbola</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>20+ Daftar Film Rilis di Bioskop Oktober 2025, Lengkap dengan Sinopis</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/jabar-gaskeun/d-8141587/20-daftar-film-rilis-di-bioskop-oktober-2025-lengkap-dengan-sinopis</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Kamis, 02 Okt 2025 19:30 WIB</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Keluarga Orang Hilang Terus Memupuk Asa</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/foto-news/d-2617054/keluarga-orang-hilang-terus-memupuk-asa</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Senin, 23 Jun 2014 21:21 WIB</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>FotoNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Sejarah Berdirinya Gerwani dan Nasibnya Setelah G30S</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/berita/d-8140830/sejarah-berdirinya-gerwani-dan-nasibnya-setelah-g30s</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Kamis, 02 Okt 2025 10:30 WIB</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>detikKalimantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Dituding Islamofobia dan Di-unfollow Personel Super Junior, Siwon Minta Maaf</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/berita/d-8139603/dituding-islamofobia-dan-di-unfollow-personel-super-junior-siwon-minta-maaf</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Rabu, 01 Okt 2025 17:00 WIB</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>detikKalimantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Siwon Minta Maaf Dituding Islamofobia, Personel Super Junior Unfollow Akunnya</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>https://wolipop.detik.com/entertainment-news/d-8139252/siwon-minta-maaf-dituding-islamofobia-personel-super-junior-unfollow-akunnya</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Rabu, 01 Okt 2025 13:30 WIB</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Wolipop</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Sejarah Hari Kesaktian Pancasila dan Cara Memaknainya di 2025</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/berita/d-8139205/sejarah-hari-kesaktian-pancasila-dan-cara-memaknainya-di-2025</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Rabu, 01 Okt 2025 12:00 WIB</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Polisi Amankan Mobil Geng Rusia Perampok WN Ukraina di Bali</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-7787971/polisi-amankan-mobil-geng-rusia-perampok-wn-ukraina-di-bali</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Kamis, 20 Feb 2025 18:36 WIB</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>detikBali</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Hamas Akan Serahkan 4 Jenazah Sandera ke Israel</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/internasional/d-7786957/hamas-akan-serahkan-4-jenazah-sandera-ke-israel</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Kamis, 20 Feb 2025 10:58 WIB</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Viral Istri Serka HS Tersangka Pembunuhan Eks TNI Dilepas, Polisi Bantah</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumut/hukum-dan-kriminal/d-7784543/viral-istri-serka-hs-tersangka-pembunuhan-eks-tni-dilepas-polisi-bantah</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Selasa, 18 Feb 2025 19:30 WIB</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>detikSumut</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Viral Penculikan Anak di Bekasi, Ternyata Kejadian 2018 dan Hoax</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikflash/20200229-200229030/viral-penculikan-anak-di-bekasi-ternyata-kejadian-2018-dan-hoax</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Rabu, 28 Jan 2026 20:01 WIB</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>20Detik</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Diculik gegara Utang Narkoba Kakak, Pria Aceh Diselamatkan di Thailand</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumut/hukum-dan-kriminal/d-7784540/diculik-gegara-utang-narkoba-kakak-pria-aceh-diselamatkan-di-thailand</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Selasa, 18 Feb 2025 19:15 WIB</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>detikSumut</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Tanggal 18 Februari Memperingati Apa? Ini Daftarnya</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/jabar-gaskeun/d-7783300/tanggal-18-februari-memperingati-apa-ini-daftarnya</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Selasa, 18 Feb 2025 06:35 WIB</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Penculik Siswi SD di Mojokerto Sudah Beraksi 5 Kali, Korban juga Dicabuli</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-7782213/penculik-siswi-sd-di-mojokerto-sudah-beraksi-5-kali-korban-juga-dicabuli</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Senin, 17 Feb 2025 16:00 WIB</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Gubernur Sulut Terpilih Siap Ikut Retret di Akmil: Saya Mantan Kopassus</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-7781837/gubernur-sulut-terpilih-siap-ikut-retret-di-akmil-saya-mantan-kopassus</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>Senin, 17 Feb 2025 11:37 WIB</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Penculik Siswi SD di Mojokerto Ditangkap, Sempat Dimassa gegara Tak Ngaku</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-7781113/penculik-siswi-sd-di-mojokerto-ditangkap-sempat-dimassa-gegara-tak-ngaku</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Minggu, 16 Feb 2025 16:47 WIB</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Keji! Pria di Sorong Culik dan Perkosa Wanita Disabilitas</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumut/hukum-dan-kriminal/d-7780407/keji-pria-di-sorong-culik-dan-perkosa-wanita-disabilitas</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Minggu, 16 Feb 2025 09:00 WIB</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>detikSumut</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Sinopsis Film Medieval, Kisah Prajurit Legendaris Bohemia</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jabar/jabar-gaskeun/d-7779649/sinopsis-film-medieval-kisah-prajurit-legendaris-bohemia</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Sabtu, 15 Feb 2025 22:00 WIB</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>detikJabar</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Akhir Tragis Bocah 7 Tahun di Jember Tewas di Tangan Kekasih Ibunya</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-7779345/akhir-tragis-bocah-7-tahun-di-jember-tewas-di-tangan-kekasih-ibunya</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Sabtu, 15 Feb 2025 08:00 WIB</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Kronologi Keji Bocah 7 Tahun di Jember Tewas Dihajar Kekasih Ibunya</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-7779197/kronologi-keji-bocah-7-tahun-di-jember-tewas-dihajar-kekasih-ibunya</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Sabtu, 15 Feb 2025 01:00 WIB</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Bocah di Jember Tewas Dihajar Kekasih Ibunya dengan Tangan Kosong</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-7779144/bocah-di-jember-tewas-dihajar-kekasih-ibunya-dengan-tangan-kosong</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Jumat, 14 Feb 2025 20:48 WIB</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Al Khelaifi Tersandung Kasus, PSG Terancam Kehilangan Pendanaan</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>https://sport.detik.com/sepakbola/bola-dunia/d-7778699/al-khelaifi-tersandung-kasus-psg-terancam-kehilangan-pendanaan</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Jumat, 14 Feb 2025 18:00 WIB</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Sepakbola</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Bocah 7 Tahun di Jember Dianiaya Kekasih Ibunya hingga Tewas</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/hukum-dan-kriminal/d-7777644/bocah-7-tahun-di-jember-dianiaya-kekasih-ibunya-hingga-tewas</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Kamis, 13 Feb 2025 23:09 WIB</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>detikJatim</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Anggota PPD Ngaku Diculik-Diberi Duit untuk Atur Pilgub Papua Pegunungan</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/pilkada/d-7775221/anggota-ppd-ngaku-diculik-diberi-duit-untuk-atur-pilgub-papua-pegunungan</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Rabu, 12 Feb 2025 17:08 WIB</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Pria di Tangsel Diculik hingga Dikeroyok, 6 Pelaku Ditangkap</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-7774904/pria-di-tangsel-diculik-hingga-dikeroyok-6-pelaku-ditangkap</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Rabu, 12 Feb 2025 15:06 WIB</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Ada Cerita Saat Kante Nyaris Diculik Sebelum Gabung Leicester</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumut/sepakbola/d-7770610/ada-cerita-saat-kante-nyaris-diculik-sebelum-gabung-leicester</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Senin, 10 Feb 2025 01:00 WIB</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>detikSumut</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Polemik Visual Dewa Siwa-Geng Rusia Perampok WN Ukraina Masih Berkeliaran</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/bali/berita/d-7769884/polemik-visual-dewa-siwa-geng-rusia-perampok-wn-ukraina-masih-berkeliaran</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Minggu, 09 Feb 2025 11:10 WIB</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>detikBali</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Heboh Polisi di Jambi Bikin Video Anak dan Istri Diculik, Ini Kata Kapolresta</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumbagsel/berita/d-7768405/heboh-polisi-di-jambi-bikin-video-anak-dan-istri-diculik-ini-kata-kapolresta</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Jumat, 07 Feb 2025 21:32 WIB</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>detikSumbagsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Siswi SMP di Kupang Diduga Diculik dan Diperkosa, Pelaku Masih Berkeliaran</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-7768180/siswi-smp-di-kupang-diduga-diculik-dan-diperkosa-pelaku-masih-berkeliaran</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Jumat, 07 Feb 2025 18:00 WIB</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>detikBali</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Cerita Ayah Korban Penculikan soal Eks Karyawan yang Jadi Penculik</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-7767169/cerita-ayah-korban-penculikan-soal-eks-karyawan-yang-jadi-penculik</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Jumat, 07 Feb 2025 10:27 WIB</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>detikBali</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Sebulan Berlalu, tapi Geng Rusia Pelaku Perampokan Bule Ukraina Belum Ketemu</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>https://travel.detik.com/travel-news/d-7766805/sebulan-berlalu-tapi-geng-rusia-pelaku-perampokan-bule-ukraina-belum-ketemu</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Kamis, 06 Feb 2025 23:10 WIB</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>detikTravel</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Rekaman Suara Penculik Anak di Denpasar Minta Tebusan Rp 100 Juta</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-7766116/rekaman-suara-penculik-anak-di-denpasar-minta-tebusan-rp-100-juta</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Kamis, 06 Feb 2025 15:30 WIB</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>detikBali</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Video Motif Penculik Anak Mantan Bosnya di Bali: Sakit Hati Dipecat</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20250206-250206093/video-motif-penculik-anak-mantan-bosnya-di-bali-sakit-hati-dipecat</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Kamis, 06 Feb 2025 14:43 WIB</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Tampang Penculik Anak Mantan Bos di Denpasar yang Gagal Dapat Rp 100 Juta</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-7765970/tampang-penculik-anak-mantan-bos-di-denpasar-yang-gagal-dapat-rp-100-juta</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Kamis, 06 Feb 2025 14:12 WIB</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>detikBali</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Video: Rekaman Telepon Penculik Anak Pengusaha di Bali Minta Rp 100 Juta</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>https://20.detik.com/detikupdate/20250206-250206088/video-rekaman-telepon-penculik-anak-pengusaha-di-bali-minta-rp-100-juta</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Kamis, 06 Feb 2025 14:09 WIB</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Kata Ayah Siswa SD di Bali soal Eks Karyawan Penculik Anaknya</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-7765957/kata-ayah-siswa-sd-di-bali-soal-eks-karyawan-penculik-anaknya</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Kamis, 06 Feb 2025 14:01 WIB</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Penculik Anak Pengusaha di Denpasar Baru Kerja 2 Bulan Sebelum Dipecat</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-7765792/penculik-anak-pengusaha-di-denpasar-baru-kerja-2-bulan-sebelum-dipecat</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Kamis, 06 Feb 2025 12:45 WIB</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>detikBali</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Eks Karyawan Culik Anak Bos dan Minta Tebusan, Ngaku Dendam Usai Dipecat</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-7765709/eks-karyawan-culik-anak-bos-dan-minta-tebusan-ngaku-dendam-usai-dipecat</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Kamis, 06 Feb 2025 11:54 WIB</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>detikNews</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
